--- a/Civ_bonuses.xlsx
+++ b/Civ_bonuses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Rodygin\PycharmProjects\CivilizationStartingGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE4AC31-B375-43EF-9FE1-641F0367FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BB2716-EB64-479E-9046-301618882A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{44643C0C-750C-4F5F-AD2A-9C2C0A291026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{44643C0C-750C-4F5F-AD2A-9C2C0A291026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">Форма правления: Демократия </t>
   </si>
   <si>
-    <t>Обратботка металла</t>
-  </si>
-  <si>
     <t>Верховая езда</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>В начале игры получают 3 культуры</t>
+  </si>
+  <si>
+    <t>Обработка металла</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075BF14E-D8FA-4151-93CB-15046AE016F2}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1224,16 +1224,16 @@
         <v>31</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
@@ -1244,16 +1244,16 @@
         <v>28</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="G2" s="16"/>
     </row>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11">
         <v>9</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11">
         <v>7</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="11">
         <v>7</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="11">
         <v>5</v>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11">
         <v>7</v>
@@ -1502,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="11">
         <v>7</v>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="11">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="11">
         <v>4</v>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11">
         <v>3</v>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="11">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="11">
         <v>2</v>
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="11">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="11">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="11">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="11">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="11">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="11">
         <v>5</v>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="11">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="11">
         <v>6</v>
@@ -2142,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="11">
         <v>4</v>
@@ -2162,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="11">
         <v>3</v>
@@ -2182,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="11">
         <v>3</v>
@@ -2242,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11">
         <v>2</v>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="11">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="11">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="11">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="11">
         <v>3</v>
@@ -2482,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="11">
         <v>2</v>
@@ -2502,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="11">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="11">
         <v>2</v>
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="11">
         <v>2</v>
@@ -2562,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="11">
         <v>1</v>
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" s="11">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C70" s="11">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="11">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="11">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>10</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" s="11">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="11">
         <v>3</v>
@@ -2702,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11">
         <v>3</v>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="11">
         <v>3</v>
@@ -2742,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="11">
         <v>3</v>
@@ -2762,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="11">
         <v>3</v>
@@ -2782,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="11">
         <v>2</v>
@@ -2802,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="11">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="11">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C82" s="11">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="11">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="11">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="11">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="11">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="11">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="11">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="11">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="11">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="11">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="11">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>6</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="11">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94" s="11">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="11">
         <v>3</v>
@@ -3122,7 +3122,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C96" s="14">
         <v>3</v>
@@ -3202,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" s="14">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="14">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="14">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" s="14">
         <v>1</v>
